--- a/result_analysis/RQ1_results_pi0.xlsx
+++ b/result_analysis/RQ1_results_pi0.xlsx
@@ -15567,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0.06032246330714821</v>
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>0.1083645422092667</v>
@@ -15645,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0.1195895825783082</v>
@@ -15684,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0.1193505041591269</v>
@@ -15723,7 +15723,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>0.1618544011322913</v>
@@ -15762,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>0.260903787477242</v>
@@ -15801,7 +15801,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0.778459884098112</v>
@@ -15840,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>0.09729462930304787</v>
@@ -15879,7 +15879,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0.05126619033387795</v>
@@ -15918,7 +15918,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0.2066488044161029</v>
@@ -15957,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0.0934287151398342</v>
@@ -15996,7 +15996,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0.05678746700830807</v>
@@ -16035,7 +16035,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>0.660871875368774</v>
@@ -16074,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>0.06298476894575303</v>
@@ -16113,7 +16113,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0.04085486982013454</v>
@@ -16152,7 +16152,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0.1706772727190224</v>
@@ -16191,7 +16191,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>0.07113867367389898</v>
@@ -16230,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>0.1474896551780777</v>
@@ -16269,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>0.1173697070370725</v>
@@ -16308,7 +16308,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0.0746406120545183</v>
@@ -16347,7 +16347,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0.1429786049603923</v>
@@ -16386,7 +16386,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0.02797558064679146</v>
@@ -16425,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>0.4637791346783131</v>
@@ -16464,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>0.1561623401787169</v>
@@ -16503,7 +16503,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0.09806305843023598</v>
@@ -16542,7 +16542,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0.06285205020603342</v>
@@ -16581,7 +16581,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0.1075657137018121</v>
@@ -16620,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0.07804931542461802</v>
@@ -16659,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0.187551757361641</v>
@@ -16698,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>0.08231874540062477</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0.1121742616761814</v>
@@ -16776,7 +16776,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>0.04851346882140199</v>
@@ -16815,7 +16815,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0.2307751713131251</v>
@@ -16854,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>0.09585454266734662</v>
@@ -16893,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0.1355606330603088</v>
@@ -16932,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>0.08212630311739195</v>
@@ -16971,7 +16971,7 @@
         <v>0</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>0.1943553585921922</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0.1212045538981049</v>
@@ -17049,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>0.2243680057189386</v>
@@ -17088,7 +17088,7 @@
         <v>1</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0.1077760022598691</v>
@@ -17127,7 +17127,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>0.1249930765397621</v>
@@ -17166,7 +17166,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>0.3551714806544415</v>
@@ -17205,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>0.07180671876625187</v>
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>0.2397306546633328</v>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>0.1967917566767785</v>
@@ -17322,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0.1030885116731047</v>
@@ -17361,7 +17361,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>0.258699812465784</v>
@@ -17400,7 +17400,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0.1203074645087858</v>
@@ -17439,7 +17439,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0.06934148210905956</v>
@@ -17478,7 +17478,7 @@
         <v>1</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0.3230834263591384</v>
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>0.7009685838314024</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0.2153834543633049</v>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>0.1434831210552586</v>
@@ -17634,7 +17634,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0.1422831740588899</v>
@@ -17673,7 +17673,7 @@
         <v>1</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0.0730883850590352</v>
@@ -17712,7 +17712,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0.0429459538243683</v>
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0.2222962443481408</v>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>0.1330318446223919</v>
@@ -17829,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>0.1535892098045517</v>
@@ -17868,7 +17868,7 @@
         <v>1</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0.2345406987133961</v>
@@ -17907,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0.2484430021427903</v>
@@ -17946,7 +17946,7 @@
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>0.1186246158056783</v>
@@ -17985,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>0.1491057250588117</v>
@@ -18024,7 +18024,7 @@
         <v>1</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0.2128946945474743</v>
@@ -18063,7 +18063,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0.1013794351462286</v>
@@ -18102,7 +18102,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0.1629944521869093</v>
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0.08103156751876091</v>
@@ -18180,7 +18180,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0.1849018766575747</v>
@@ -18219,7 +18219,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>0.1964324871333306</v>
@@ -18258,7 +18258,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0.03346912744916192</v>
@@ -18297,7 +18297,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0.1199033459491669</v>
@@ -18336,7 +18336,7 @@
         <v>1</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0.2637111041478143</v>
@@ -18375,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>0.3660306600786168</v>
@@ -18414,7 +18414,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0.06235448802866077</v>
@@ -18453,7 +18453,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0.03079754922916331</v>
@@ -18492,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>0.1298347808211127</v>
@@ -18531,7 +18531,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0.1046534511582354</v>
@@ -18570,7 +18570,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0.08827471099999848</v>
@@ -18609,7 +18609,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0.243084028088634</v>
@@ -18648,7 +18648,7 @@
         <v>1</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0.1628029883962226</v>
@@ -18687,7 +18687,7 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>0.4263604363094201</v>
@@ -18726,7 +18726,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0.2595889823519313</v>
@@ -18765,7 +18765,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0.3274675361939151</v>
@@ -18804,7 +18804,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0.1856613700512912</v>
@@ -18843,7 +18843,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0.3180007765755048</v>
@@ -18882,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0.1254164256150553</v>
@@ -18921,7 +18921,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0.1836963340889367</v>
@@ -18960,7 +18960,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>0.1143167688912445</v>
@@ -18999,7 +18999,7 @@
         <v>1</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0.1247193001966706</v>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>0.07583923157523632</v>
@@ -19077,7 +19077,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>0.3549836050702913</v>
@@ -19116,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>0.06883899870640049</v>
@@ -19155,7 +19155,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>0.4549967946418076</v>
@@ -19194,7 +19194,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0.3205836578945609</v>
@@ -19233,7 +19233,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0.2650460823886067</v>
@@ -19272,7 +19272,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0.4661380190297839</v>
@@ -19311,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>0.3543919475746954</v>
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>0.1579329818226892</v>
@@ -19389,7 +19389,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>0.08784691995164623</v>
@@ -19428,7 +19428,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0.1062365479289763</v>
@@ -19467,7 +19467,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0.08464259235115267</v>
@@ -19506,7 +19506,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>0.1573096535004821</v>
@@ -19545,7 +19545,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0.1130894099073268</v>
@@ -19584,7 +19584,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0.2327716713089747</v>
@@ -19623,7 +19623,7 @@
         <v>1</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0.2632701122443235</v>
@@ -19662,7 +19662,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0.12275656065071</v>
@@ -19701,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0.05107629136018743</v>
@@ -19740,7 +19740,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0.0601792328113414</v>
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>0.3453922771257953</v>
@@ -19818,7 +19818,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0.1333296530004448</v>
@@ -19857,7 +19857,7 @@
         <v>1</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0.1927725060137644</v>
@@ -19896,7 +19896,7 @@
         <v>1</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0.1409306139530929</v>
@@ -19935,7 +19935,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>0.1254954260920842</v>
@@ -19974,7 +19974,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0.2807514959731818</v>
@@ -20013,7 +20013,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0.07379862840872792</v>
@@ -20052,7 +20052,7 @@
         <v>1</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0.4451791473539938</v>
@@ -20091,7 +20091,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0.2246129766630496</v>
@@ -20130,7 +20130,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0.1838647318457217</v>
@@ -20169,7 +20169,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0.06835527106371088</v>
@@ -20208,7 +20208,7 @@
         <v>1</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0.4000165046064593</v>
@@ -20247,7 +20247,7 @@
         <v>1</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0.1527808376196167</v>
@@ -20286,7 +20286,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0.1073689138616566</v>
@@ -20325,7 +20325,7 @@
         <v>1</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0.300209415131559</v>
@@ -20364,7 +20364,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0.1596276638412144</v>
@@ -20403,7 +20403,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0.3331363217078653</v>
@@ -20442,7 +20442,7 @@
         <v>0</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>0.2920095871263712</v>
@@ -20481,7 +20481,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="n">
         <v>0.03608541687780305</v>
@@ -20520,7 +20520,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>0.2288455117386208</v>
@@ -20559,7 +20559,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="n">
         <v>0.05113408751585185</v>
@@ -20598,7 +20598,7 @@
         <v>1</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0.07840197496426722</v>
@@ -20637,7 +20637,7 @@
         <v>1</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0.1672546036935359</v>
@@ -20676,7 +20676,7 @@
         <v>1</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0.09693694669190568</v>
@@ -20715,7 +20715,7 @@
         <v>1</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0.1219614699825207</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0.04986732464979267</v>
@@ -20793,7 +20793,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>0.069022605778605</v>
@@ -20832,7 +20832,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0.08186215516919185</v>
@@ -20871,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>0.1250711883392071</v>
@@ -20910,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>0.2120769197879085</v>
@@ -20949,7 +20949,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0.166504378839558</v>
@@ -20988,7 +20988,7 @@
         <v>1</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0.1893464098558555</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0.177734137135074</v>
@@ -21066,7 +21066,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>0.1273559267303098</v>
@@ -21105,7 +21105,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0.3674437091288048</v>
@@ -21144,7 +21144,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0.1391770942922214</v>
@@ -21183,7 +21183,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0.04897642100112146</v>
@@ -21222,7 +21222,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>0.4812232493433012</v>
@@ -21261,7 +21261,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="n">
         <v>0.04888147638973938</v>
@@ -21300,7 +21300,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0.286059465255786</v>
@@ -21339,7 +21339,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>0.2227849064606481</v>
@@ -21378,7 +21378,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0.3134191816967468</v>
@@ -21417,7 +21417,7 @@
         <v>1</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0.2404950195302769</v>
@@ -21456,7 +21456,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>0.1407376628322607</v>
@@ -21495,7 +21495,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0.09169339678112962</v>
@@ -21534,7 +21534,7 @@
         <v>1</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>0.247715570963228</v>
@@ -21573,7 +21573,7 @@
         <v>1</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0.08387145243595802</v>
@@ -21612,7 +21612,7 @@
         <v>1</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0.1651018256958658</v>
@@ -21651,7 +21651,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>0.1194159453235773</v>
@@ -21690,7 +21690,7 @@
         <v>1</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="n">
         <v>0.07776969840755565</v>
@@ -21729,7 +21729,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>0.2144380071709377</v>
@@ -21768,7 +21768,7 @@
         <v>1</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="n">
         <v>0.07053058842621687</v>
@@ -21807,7 +21807,7 @@
         <v>1</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0.04952553120013774</v>
@@ -21846,7 +21846,7 @@
         <v>1</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0.04287804304210519</v>
@@ -21885,7 +21885,7 @@
         <v>1</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
         <v>0.374231477760859</v>
@@ -21924,7 +21924,7 @@
         <v>1</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0.3365785853979684</v>
@@ -21963,7 +21963,7 @@
         <v>1</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0.03384774955396912</v>
@@ -22002,7 +22002,7 @@
         <v>0</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>0.2719610436526641</v>
@@ -22041,7 +22041,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0.04306453879496545</v>
@@ -22080,7 +22080,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0.02785364787065349</v>
@@ -22119,7 +22119,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0.2566882350069269</v>
@@ -22158,7 +22158,7 @@
         <v>1</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0.1643479776256494</v>
@@ -22197,7 +22197,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0.2418592570222516</v>
@@ -22236,7 +22236,7 @@
         <v>1</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0.2196561059164182</v>
@@ -22275,7 +22275,7 @@
         <v>1</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0.07442606458896446</v>
@@ -22314,7 +22314,7 @@
         <v>1</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0.1685068263066846</v>
@@ -22353,7 +22353,7 @@
         <v>1</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0.1529706815084607</v>
@@ -22392,7 +22392,7 @@
         <v>1</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0.150805845331907</v>
@@ -22431,7 +22431,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>0.2318602196720404</v>
@@ -22470,7 +22470,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="n">
         <v>0.2397689863892205</v>
@@ -22509,7 +22509,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I566" t="n">
         <v>0.1406646251427904</v>
@@ -22548,7 +22548,7 @@
         <v>1</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0.1879893367375323</v>
@@ -22587,7 +22587,7 @@
         <v>0</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I568" t="n">
         <v>0.2172758484209688</v>
@@ -22626,7 +22626,7 @@
         <v>1</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0.5766944743740519</v>
@@ -22665,7 +22665,7 @@
         <v>1</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0.2947777073372434</v>
@@ -22704,7 +22704,7 @@
         <v>0</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>0.3681007854855359</v>
@@ -22743,7 +22743,7 @@
         <v>1</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0.1018943252866183</v>
@@ -22782,7 +22782,7 @@
         <v>1</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0.05868365987894111</v>
@@ -22821,7 +22821,7 @@
         <v>1</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0.03821556045587107</v>
@@ -22860,7 +22860,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>0.1072946978722788</v>
@@ -22899,7 +22899,7 @@
         <v>0</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>0.05682655750808396</v>
@@ -22938,7 +22938,7 @@
         <v>1</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0.04485453378496943</v>
@@ -22977,7 +22977,7 @@
         <v>1</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0.08374678492547333</v>
@@ -23016,7 +23016,7 @@
         <v>1</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0.1382117592982165</v>
@@ -23055,7 +23055,7 @@
         <v>1</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0.1310948279741065</v>
@@ -23094,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0.06170065849649287</v>
@@ -23133,7 +23133,7 @@
         <v>1</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0.03649100288660795</v>
@@ -23172,7 +23172,7 @@
         <v>1</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0.5953932139258641</v>
@@ -23211,7 +23211,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>0.2173846010756658</v>
@@ -23250,7 +23250,7 @@
         <v>1</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0.03272187986778163</v>
@@ -23289,7 +23289,7 @@
         <v>1</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0.186437743427616</v>
@@ -23328,7 +23328,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>0.1611373417564378</v>
@@ -23367,7 +23367,7 @@
         <v>1</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0.2779744780119904</v>
@@ -23406,7 +23406,7 @@
         <v>1</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0.03330630129798057</v>
@@ -23445,7 +23445,7 @@
         <v>1</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0.06398908934128116</v>
@@ -23484,7 +23484,7 @@
         <v>1</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0.1556608778619782</v>
@@ -23523,7 +23523,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>0.05362037096569332</v>
@@ -23562,7 +23562,7 @@
         <v>1</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="n">
         <v>0.1010643780494603</v>
@@ -23601,7 +23601,7 @@
         <v>1</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="n">
         <v>0.05907139762206277</v>
@@ -23640,7 +23640,7 @@
         <v>1</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="n">
         <v>0.1208919648441255</v>
@@ -23679,7 +23679,7 @@
         <v>1</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="n">
         <v>0.1903937986392154</v>
@@ -23718,7 +23718,7 @@
         <v>1</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="n">
         <v>0.1901279920402842</v>
@@ -23757,7 +23757,7 @@
         <v>1</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="n">
         <v>0.05977269656582598</v>
@@ -23796,7 +23796,7 @@
         <v>1</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="n">
         <v>0.1312568655134344</v>
@@ -23835,7 +23835,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I600" t="n">
         <v>0.4790318656835639</v>
@@ -23874,7 +23874,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I601" t="n">
         <v>0.1349469408135424</v>
@@ -23913,7 +23913,7 @@
         <v>0</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I602" t="n">
         <v>0.2383470332172444</v>
@@ -23952,7 +23952,7 @@
         <v>1</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="n">
         <v>0.07576723137987053</v>
@@ -23991,7 +23991,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>0.2297540961169417</v>
@@ -24030,7 +24030,7 @@
         <v>1</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="n">
         <v>0.2583841666152204</v>
@@ -24069,7 +24069,7 @@
         <v>1</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="n">
         <v>0.03790681736383389</v>
@@ -24108,7 +24108,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I607" t="n">
         <v>0.1579036071780626</v>
@@ -24147,7 +24147,7 @@
         <v>1</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="n">
         <v>0.1866072563869274</v>
@@ -24186,7 +24186,7 @@
         <v>1</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609" t="n">
         <v>0.03439135874306878</v>
@@ -24225,7 +24225,7 @@
         <v>1</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610" t="n">
         <v>0.07295943470715087</v>
@@ -24264,7 +24264,7 @@
         <v>1</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I611" t="n">
         <v>0.02592329605038358</v>
@@ -24303,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I612" t="n">
         <v>0.2784226617116457</v>
@@ -24342,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I613" t="n">
         <v>0.1862401478798076</v>
@@ -24381,7 +24381,7 @@
         <v>1</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="n">
         <v>0.1707005969492973</v>
@@ -24420,7 +24420,7 @@
         <v>1</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I615" t="n">
         <v>0.05102915990460513</v>
@@ -24459,7 +24459,7 @@
         <v>1</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="n">
         <v>0.2858615963119354</v>
@@ -24498,7 +24498,7 @@
         <v>1</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="n">
         <v>0.03951162100559905</v>
@@ -24537,7 +24537,7 @@
         <v>1</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I618" t="n">
         <v>0.03078613823813034</v>
@@ -24576,7 +24576,7 @@
         <v>1</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="n">
         <v>0.2138113400324685</v>
@@ -24615,7 +24615,7 @@
         <v>1</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="n">
         <v>0.04166446009109522</v>
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="n">
         <v>0.04321663411882901</v>
@@ -24693,7 +24693,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>0.2050397079985338</v>
@@ -24732,7 +24732,7 @@
         <v>1</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="n">
         <v>0.1565893611216855</v>
@@ -24771,7 +24771,7 @@
         <v>1</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="n">
         <v>0.03362644954018962</v>
@@ -24810,7 +24810,7 @@
         <v>1</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="n">
         <v>0.05887830607913403</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>0.3815572609269768</v>
@@ -24888,7 +24888,7 @@
         <v>1</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="n">
         <v>0.2162601034916951</v>
@@ -24927,7 +24927,7 @@
         <v>0</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I628" t="n">
         <v>0.3108863679522176</v>
@@ -24966,7 +24966,7 @@
         <v>0</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>0.1952857849572278</v>
@@ -25005,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>0.3268307617527553</v>
@@ -25044,7 +25044,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>0.5349625558352088</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>0.8539922480929006</v>
@@ -25122,7 +25122,7 @@
         <v>1</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="n">
         <v>0.03858485545928354</v>
@@ -25161,7 +25161,7 @@
         <v>1</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="n">
         <v>0.02579996735252485</v>
@@ -25200,7 +25200,7 @@
         <v>1</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635" t="n">
         <v>0.06953434189398852</v>
@@ -25239,7 +25239,7 @@
         <v>1</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="n">
         <v>0.2371954073141102</v>
@@ -25278,7 +25278,7 @@
         <v>1</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0.2187146095217513</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I638" t="n">
         <v>0.09711675438000802</v>
@@ -25356,7 +25356,7 @@
         <v>1</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0.07759601060802965</v>
@@ -25395,7 +25395,7 @@
         <v>1</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0.1864129720146143</v>
@@ -25434,7 +25434,7 @@
         <v>1</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0.04626022460924262</v>
@@ -25473,7 +25473,7 @@
         <v>0</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>0.1790733402809468</v>
@@ -25512,7 +25512,7 @@
         <v>0</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
         <v>0.6979659083494747</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I644" t="n">
         <v>0.6346191258191466</v>
@@ -25590,7 +25590,7 @@
         <v>1</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="n">
         <v>0.06842322084785764</v>
@@ -25629,7 +25629,7 @@
         <v>1</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="n">
         <v>0.04147188330265605</v>
@@ -25668,7 +25668,7 @@
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
         <v>0.2098480334414865</v>
@@ -25707,7 +25707,7 @@
         <v>1</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="n">
         <v>0.05025750066557896</v>
@@ -25746,7 +25746,7 @@
         <v>1</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="n">
         <v>0.2169283228604168</v>
@@ -25785,7 +25785,7 @@
         <v>0</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I650" t="n">
         <v>0.3198173315403924</v>
@@ -25824,7 +25824,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I651" t="n">
         <v>0.3405652423663855</v>
@@ -25863,7 +25863,7 @@
         <v>1</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="n">
         <v>0.04922170951463765</v>
@@ -25902,7 +25902,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>0.21478740092485</v>
@@ -25941,7 +25941,7 @@
         <v>1</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="n">
         <v>0.0350038427828006</v>
@@ -25980,7 +25980,7 @@
         <v>1</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="n">
         <v>0.2353970059321187</v>
@@ -26019,7 +26019,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>0.5993179989952946</v>
@@ -26058,7 +26058,7 @@
         <v>1</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="n">
         <v>0.0360470030581858</v>
@@ -26097,7 +26097,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
         <v>0.2236297104234474</v>
@@ -26136,7 +26136,7 @@
         <v>1</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="n">
         <v>0.1685715857101929</v>
@@ -26175,7 +26175,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I660" t="n">
         <v>0.3388349167305762</v>
@@ -26214,7 +26214,7 @@
         <v>0</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
         <v>0.3147328082110356</v>
@@ -26253,7 +26253,7 @@
         <v>0</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I662" t="n">
         <v>0.5926602957589543</v>
@@ -26292,7 +26292,7 @@
         <v>1</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="n">
         <v>0.02153103076571923</v>
@@ -26331,7 +26331,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I664" t="n">
         <v>0.2596726825243649</v>
@@ -26370,7 +26370,7 @@
         <v>0</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>0.2677640266277556</v>
@@ -26409,7 +26409,7 @@
         <v>1</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666" t="n">
         <v>0.03807512462622206</v>
@@ -26448,7 +26448,7 @@
         <v>0</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>1.486259609088204</v>
@@ -26487,7 +26487,7 @@
         <v>1</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
         <v>0.1369922108178537</v>
@@ -26526,7 +26526,7 @@
         <v>1</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
         <v>0.2352871142690288</v>
@@ -26565,7 +26565,7 @@
         <v>1</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="n">
         <v>0.06671218853559663</v>
@@ -26604,7 +26604,7 @@
         <v>1</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I671" t="n">
         <v>0.1498987626756156</v>
@@ -26643,7 +26643,7 @@
         <v>1</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
         <v>0.04368337987822105</v>
@@ -26682,7 +26682,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>0.281533038059528</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
         <v>0.3050024183477373</v>
@@ -26760,7 +26760,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>0.156615528291867</v>
@@ -26799,7 +26799,7 @@
         <v>1</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="n">
         <v>0.1756060453178588</v>
@@ -26838,7 +26838,7 @@
         <v>0</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>0.2276913196404306</v>
@@ -26877,7 +26877,7 @@
         <v>0</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>0.3239218906826037</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>0.2054728493176562</v>
@@ -26955,7 +26955,7 @@
         <v>1</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="n">
         <v>0.1277629053220993</v>
@@ -26994,7 +26994,7 @@
         <v>1</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="n">
         <v>0.1083504872040793</v>
@@ -27033,7 +27033,7 @@
         <v>1</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682" t="n">
         <v>0.04356958527936128</v>
@@ -27072,7 +27072,7 @@
         <v>1</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="n">
         <v>0.06433357284515927</v>
@@ -27111,7 +27111,7 @@
         <v>1</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="n">
         <v>0.06073266246685213</v>
@@ -27150,7 +27150,7 @@
         <v>0</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I685" t="n">
         <v>0.1034282609168094</v>
@@ -27189,7 +27189,7 @@
         <v>1</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
         <v>0.0685731967738664</v>
@@ -27228,7 +27228,7 @@
         <v>1</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="n">
         <v>0.06917123318574941</v>
@@ -27267,7 +27267,7 @@
         <v>1</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688" t="n">
         <v>0.07596144145986275</v>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I689" t="n">
         <v>0.2031461064429238</v>
@@ -27345,7 +27345,7 @@
         <v>1</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
         <v>0.1406830738521656</v>
@@ -27384,7 +27384,7 @@
         <v>1</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="n">
         <v>0.06826016420980009</v>
@@ -27423,7 +27423,7 @@
         <v>1</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
         <v>0.1094647080321192</v>
@@ -27462,7 +27462,7 @@
         <v>0</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I693" t="n">
         <v>0.8133647090208814</v>
@@ -27501,7 +27501,7 @@
         <v>1</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="n">
         <v>0.03992222040024481</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>0.256272164985773</v>
@@ -27579,7 +27579,7 @@
         <v>1</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="n">
         <v>0.1434290844124058</v>
@@ -27618,7 +27618,7 @@
         <v>1</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0.2386727625195859</v>
@@ -27657,7 +27657,7 @@
         <v>1</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698" t="n">
         <v>0.1673548381717826</v>
@@ -27696,7 +27696,7 @@
         <v>1</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0.04384655504092989</v>
@@ -27735,7 +27735,7 @@
         <v>1</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0.1486898365370522</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>0.36283028208651</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>0.1648463164636093</v>
@@ -27852,7 +27852,7 @@
         <v>1</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="n">
         <v>1.486664138707021</v>
@@ -27891,7 +27891,7 @@
         <v>1</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="n">
         <v>0.9232013471819236</v>
@@ -27930,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I705" t="n">
         <v>0.7652078584506942</v>
@@ -27969,7 +27969,7 @@
         <v>0</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I706" t="n">
         <v>0.5820416168883039</v>
@@ -28008,7 +28008,7 @@
         <v>1</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
         <v>0.2440643062728337</v>
@@ -28047,7 +28047,7 @@
         <v>1</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
         <v>0.3158076515242075</v>
@@ -28086,7 +28086,7 @@
         <v>1</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0.04238876967942709</v>
@@ -28125,7 +28125,7 @@
         <v>1</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0.2711717320480405</v>
@@ -28164,7 +28164,7 @@
         <v>1</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0.06147360858376233</v>
@@ -28203,7 +28203,7 @@
         <v>1</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="n">
         <v>0.3135965863620065</v>
@@ -28242,7 +28242,7 @@
         <v>1</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
         <v>0.3688265138989153</v>
@@ -28281,7 +28281,7 @@
         <v>1</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0.06508633812079992</v>
@@ -28320,7 +28320,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
         <v>0.5399706123065954</v>
@@ -28359,7 +28359,7 @@
         <v>1</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="n">
         <v>0.09351620179788933</v>
@@ -28398,7 +28398,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I717" t="n">
         <v>0.9672686971265824</v>
@@ -28437,7 +28437,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>0.2296301008215365</v>
@@ -28476,7 +28476,7 @@
         <v>0</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
         <v>1.131366050877045</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I720" t="n">
         <v>0.3811938669399018</v>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I721" t="n">
         <v>0.2701486621289942</v>
@@ -28593,7 +28593,7 @@
         <v>1</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
         <v>0.04583491596954804</v>
@@ -28632,7 +28632,7 @@
         <v>1</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="n">
         <v>0.1145698818532217</v>
@@ -28671,7 +28671,7 @@
         <v>0</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
         <v>0.4714236375453831</v>
@@ -28710,7 +28710,7 @@
         <v>0</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>0.257389142782091</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I726" t="n">
         <v>0.4964974464528245</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I727" t="n">
         <v>0.3183884332604666</v>
@@ -28827,7 +28827,7 @@
         <v>0</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I728" t="n">
         <v>0.5664196615041419</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I729" t="n">
         <v>0.341004901465294</v>
@@ -28905,7 +28905,7 @@
         <v>1</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="n">
         <v>0.06691002536762884</v>
@@ -28944,7 +28944,7 @@
         <v>1</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
         <v>0.1803154502187177</v>
@@ -28983,7 +28983,7 @@
         <v>1</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="n">
         <v>0.2569964441346218</v>
@@ -29022,7 +29022,7 @@
         <v>0</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I733" t="n">
         <v>0.4032175769493191</v>
@@ -29061,7 +29061,7 @@
         <v>1</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="n">
         <v>0.09171425464563658</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I735" t="n">
         <v>0.5916569270923865</v>
@@ -29139,7 +29139,7 @@
         <v>0</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I736" t="n">
         <v>0.2533983530502278</v>
@@ -29178,7 +29178,7 @@
         <v>0</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I737" t="n">
         <v>0.5509782617053002</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I738" t="n">
         <v>0.04474161004125649</v>
@@ -29256,7 +29256,7 @@
         <v>1</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739" t="n">
         <v>0.03278269067698674</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I740" t="n">
         <v>0.1257005218129232</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I741" t="n">
         <v>0.3399670982476043</v>
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I742" t="n">
         <v>0.3165719899641509</v>
@@ -29412,7 +29412,7 @@
         <v>0</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I743" t="n">
         <v>0.5496163900302532</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I744" t="n">
         <v>1.271891274905183</v>
@@ -29490,7 +29490,7 @@
         <v>1</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="n">
         <v>0.07944707088878548</v>
@@ -29529,7 +29529,7 @@
         <v>1</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="n">
         <v>1.932932215872456</v>
@@ -29568,7 +29568,7 @@
         <v>1</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="n">
         <v>0.04177061592535517</v>
@@ -29607,7 +29607,7 @@
         <v>0</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I748" t="n">
         <v>0.353540316780254</v>
@@ -29646,7 +29646,7 @@
         <v>1</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749" t="n">
         <v>0.05928600916797443</v>
@@ -29685,7 +29685,7 @@
         <v>1</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="n">
         <v>0.0635033352800871</v>
@@ -29724,7 +29724,7 @@
         <v>1</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="n">
         <v>0.2651072429473687</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>0.1489929527507388</v>
@@ -29802,7 +29802,7 @@
         <v>1</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="n">
         <v>0.1371854665225691</v>
@@ -29841,7 +29841,7 @@
         <v>1</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="n">
         <v>0.2033670535381287</v>
@@ -29880,7 +29880,7 @@
         <v>1</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="n">
         <v>0.07604577849925</v>
@@ -29919,7 +29919,7 @@
         <v>1</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="n">
         <v>0.06596470203339511</v>
@@ -29958,7 +29958,7 @@
         <v>1</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757" t="n">
         <v>1.83912350435528</v>
@@ -29997,7 +29997,7 @@
         <v>1</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="n">
         <v>0.2862422439720193</v>
@@ -30036,7 +30036,7 @@
         <v>1</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I759" t="n">
         <v>0.2064796043290194</v>
@@ -30075,7 +30075,7 @@
         <v>0</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>0.2893765247197995</v>
@@ -30114,7 +30114,7 @@
         <v>0</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>0.1366832399226099</v>
@@ -30153,7 +30153,7 @@
         <v>1</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I762" t="n">
         <v>0.2219095761220824</v>
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>1.080188998857371</v>
@@ -30231,7 +30231,7 @@
         <v>1</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I764" t="n">
         <v>0.1700069479738333</v>
@@ -30270,7 +30270,7 @@
         <v>1</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I765" t="n">
         <v>1.019006773514476</v>
@@ -30309,7 +30309,7 @@
         <v>1</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I766" t="n">
         <v>0.29462053424409</v>
@@ -30348,7 +30348,7 @@
         <v>0</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>0.3023347211672429</v>
@@ -30387,7 +30387,7 @@
         <v>1</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768" t="n">
         <v>0.1255360286099456</v>
@@ -30426,7 +30426,7 @@
         <v>1</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I769" t="n">
         <v>0.05135745125774436</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I770" t="n">
         <v>0.05402611567765293</v>
@@ -30504,7 +30504,7 @@
         <v>0</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I771" t="n">
         <v>0.6005244940388013</v>
@@ -30543,7 +30543,7 @@
         <v>1</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772" t="n">
         <v>0.1755005572325964</v>
@@ -30582,7 +30582,7 @@
         <v>1</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I773" t="n">
         <v>0.04497180216682672</v>
